--- a/app/config/tables/customAppearance/forms/customAppearance/customAppearance.xlsx
+++ b/app/config/tables/customAppearance/forms/customAppearance/customAppearance.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\toolsuite\app-designer\app\config\tables\customAppearance\forms\customAppearance\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5420" yWindow="4720" windowWidth="25820" windowHeight="13020"/>
+    <workbookView xWindow="5420" yWindow="4726" windowWidth="25815" windowHeight="13025" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -143,9 +148,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>form_id</t>
-  </si>
-  <si>
     <t>customAppearance</t>
   </si>
   <si>
@@ -219,6 +221,9 @@
   </si>
   <si>
     <t>((data('rating') == null) ? 5 : data('rating'))</t>
+  </si>
+  <si>
+    <t>table_id</t>
   </si>
 </sst>
 </file>
@@ -286,6 +291,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -333,7 +341,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -368,7 +376,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -579,30 +587,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.6328125" customWidth="1"/>
-    <col min="2" max="2" width="43.6328125" customWidth="1"/>
-    <col min="3" max="4" width="27.1796875" customWidth="1"/>
-    <col min="5" max="6" width="24.81640625" customWidth="1"/>
-    <col min="7" max="7" width="41.81640625" customWidth="1"/>
+    <col min="1" max="1" width="21.625" customWidth="1"/>
+    <col min="2" max="2" width="43.625" customWidth="1"/>
+    <col min="3" max="4" width="27.125" customWidth="1"/>
+    <col min="5" max="6" width="24.875" customWidth="1"/>
+    <col min="7" max="7" width="41.875" customWidth="1"/>
     <col min="8" max="8" width="40" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="15.81640625" customWidth="1"/>
-    <col min="11" max="11" width="18.36328125" customWidth="1"/>
-    <col min="12" max="12" width="18.453125" customWidth="1"/>
+    <col min="10" max="10" width="15.875" customWidth="1"/>
+    <col min="11" max="11" width="18.375" customWidth="1"/>
+    <col min="12" max="12" width="18.5" customWidth="1"/>
     <col min="13" max="13" width="19" customWidth="1"/>
     <col min="14" max="14" width="27" customWidth="1"/>
-    <col min="15" max="15" width="14.36328125" customWidth="1"/>
+    <col min="15" max="15" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -611,22 +619,22 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
@@ -644,10 +652,10 @@
         <v>7</v>
       </c>
       <c r="O1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
@@ -659,13 +667,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
@@ -679,9 +687,9 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:15" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>29</v>
@@ -694,23 +702,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:15" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>26</v>
@@ -726,9 +734,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -737,7 +745,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:15" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
@@ -752,21 +760,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G11" s="2"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:15" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>21</v>
       </c>
@@ -791,7 +799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="16.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:15" ht="16.7" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -810,25 +818,25 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" customWidth="1"/>
-    <col min="2" max="2" width="18.1796875" customWidth="1"/>
-    <col min="3" max="3" width="20.81640625" customWidth="1"/>
+    <col min="1" max="1" width="22.125" customWidth="1"/>
+    <col min="2" max="2" width="18.125" customWidth="1"/>
+    <col min="3" max="3" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="19.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -839,7 +847,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="19.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -850,7 +858,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="19.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -861,7 +869,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="19.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
@@ -872,7 +880,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="19.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -883,7 +891,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="19.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -894,7 +902,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="19.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -905,7 +913,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="19.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -916,7 +924,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="19.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -941,66 +949,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" customWidth="1"/>
-    <col min="3" max="3" width="25.81640625" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="25.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="B3" s="1">
         <v>20130408</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>44</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>46</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/customAppearance/forms/customAppearance/customAppearance.xlsx
+++ b/app/config/tables/customAppearance/forms/customAppearance/customAppearance.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5420" yWindow="4726" windowWidth="25815" windowHeight="13025" activeTab="2"/>
+    <workbookView xWindow="5420" yWindow="4726" windowWidth="25815" windowHeight="13025"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="67">
   <si>
     <t>type</t>
   </si>
@@ -172,9 +172,6 @@
     <t>setting_name</t>
   </si>
   <si>
-    <t>display.title</t>
-  </si>
-  <si>
     <t>survey</t>
   </si>
   <si>
@@ -196,12 +193,6 @@
     <t>if</t>
   </si>
   <si>
-    <t>display.hint</t>
-  </si>
-  <si>
-    <t>display.image</t>
-  </si>
-  <si>
     <t>values_list</t>
   </si>
   <si>
@@ -224,12 +215,24 @@
   </si>
   <si>
     <t>table_id</t>
+  </si>
+  <si>
+    <t>display.title.text</t>
+  </si>
+  <si>
+    <t>display.prompt.text</t>
+  </si>
+  <si>
+    <t>display.hint.text</t>
+  </si>
+  <si>
+    <t>display.prompt.image</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -374,6 +377,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -409,6 +429,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -587,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -599,7 +636,7 @@
     <col min="5" max="6" width="24.875" customWidth="1"/>
     <col min="7" max="7" width="41.875" customWidth="1"/>
     <col min="8" max="8" width="40" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="9" max="9" width="21.875" customWidth="1"/>
     <col min="10" max="10" width="15.875" customWidth="1"/>
     <col min="11" max="11" width="18.375" customWidth="1"/>
     <col min="12" max="12" width="18.5" customWidth="1"/>
@@ -610,7 +647,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -619,22 +656,22 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
@@ -652,7 +689,7 @@
         <v>7</v>
       </c>
       <c r="O1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -689,7 +726,7 @@
     </row>
     <row r="5" spans="1:15" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>29</v>
@@ -710,7 +747,7 @@
     </row>
     <row r="7" spans="1:15" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>16</v>
@@ -718,7 +755,7 @@
     </row>
     <row r="8" spans="1:15" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>26</v>
@@ -736,7 +773,7 @@
     </row>
     <row r="9" spans="1:15" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -762,14 +799,14 @@
     </row>
     <row r="11" spans="1:15" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G11" s="2"/>
       <c r="I11" s="1"/>
@@ -827,13 +864,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
@@ -949,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -968,12 +1005,12 @@
         <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>40</v>
@@ -989,7 +1026,7 @@
     </row>
     <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>42</v>

--- a/app/config/tables/customAppearance/forms/customAppearance/customAppearance.xlsx
+++ b/app/config/tables/customAppearance/forms/customAppearance/customAppearance.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5420" yWindow="4726" windowWidth="25815" windowHeight="13025"/>
+    <workbookView xWindow="5420" yWindow="4726" windowWidth="25815" windowHeight="13025" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="66">
   <si>
     <t>type</t>
   </si>
@@ -179,9 +179,6 @@
   </si>
   <si>
     <t>data_value</t>
-  </si>
-  <si>
-    <t>display.text</t>
   </si>
   <si>
     <t>clause</t>
@@ -624,7 +621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -647,7 +644,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -656,22 +653,22 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
@@ -689,7 +686,7 @@
         <v>7</v>
       </c>
       <c r="O1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -726,7 +723,7 @@
     </row>
     <row r="5" spans="1:15" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>29</v>
@@ -747,7 +744,7 @@
     </row>
     <row r="7" spans="1:15" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>16</v>
@@ -755,7 +752,7 @@
     </row>
     <row r="8" spans="1:15" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>26</v>
@@ -773,7 +770,7 @@
     </row>
     <row r="9" spans="1:15" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -799,14 +796,14 @@
     </row>
     <row r="11" spans="1:15" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G11" s="2"/>
       <c r="I11" s="1"/>
@@ -851,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -870,7 +867,7 @@
         <v>50</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
@@ -1005,12 +1002,12 @@
         <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>40</v>
